--- a/runs/run601/NotionalETEOutput601.xlsx
+++ b/runs/run601/NotionalETEOutput601.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND1_State_Update</t>
+    <t>Missile_BRAVER1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND1_101.MISSILE_HIGHWIND1_101</t>
+    <t>MISSILE_BRAVER1_61.MISSILE_BRAVER1_61</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND1</t>
+    <t>MISSILE_BRAVER1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1440.433018075621</v>
+        <v>-1468.049147386123</v>
       </c>
       <c r="J2">
-        <v>2072.974123217876</v>
+        <v>2026.791567301485</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1529.518593852625</v>
+        <v>-1440.715454536618</v>
       </c>
       <c r="J3">
-        <v>1957.670438288396</v>
+        <v>2041.249783034606</v>
       </c>
       <c r="K3">
-        <v>299.1308580150944</v>
+        <v>294.2662830943174</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1507.188698482446</v>
+        <v>-1489.16817484008</v>
       </c>
       <c r="J4">
-        <v>1918.288559430221</v>
+        <v>1877.492770212386</v>
       </c>
       <c r="K4">
-        <v>568.1695485688433</v>
+        <v>599.1651078645807</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1358.052262437116</v>
+        <v>-1346.51477769226</v>
       </c>
       <c r="J5">
-        <v>1863.890635829749</v>
+        <v>1842.743336000928</v>
       </c>
       <c r="K5">
-        <v>879.1399788593008</v>
+        <v>883.7959801059268</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1339.330770930359</v>
+        <v>-1353.391662381751</v>
       </c>
       <c r="J6">
-        <v>1779.814379324122</v>
+        <v>1885.568282564429</v>
       </c>
       <c r="K6">
-        <v>1180.267997114587</v>
+        <v>1120.342738597715</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1353.247973499725</v>
+        <v>-1334.676374843718</v>
       </c>
       <c r="J7">
-        <v>1784.661156286632</v>
+        <v>1670.756356184971</v>
       </c>
       <c r="K7">
-        <v>1343.421410762893</v>
+        <v>1312.39285413583</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1326.264089038177</v>
+        <v>-1298.507953270259</v>
       </c>
       <c r="J8">
-        <v>1730.014131344966</v>
+        <v>1705.061889657173</v>
       </c>
       <c r="K8">
-        <v>1603.708488670276</v>
+        <v>1646.050345786646</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-99.53291777399693</v>
+        <v>-100.6412882226121</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1279.656397863875</v>
+        <v>-1323.296281144143</v>
       </c>
       <c r="J9">
-        <v>1583.410315573027</v>
+        <v>1631.392916546584</v>
       </c>
       <c r="K9">
-        <v>1807.065926733851</v>
+        <v>1864.121241537786</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>211.2579478758558</v>
+        <v>219.9934559993699</v>
       </c>
       <c r="G10">
-        <v>-82.38265735673355</v>
+        <v>-85.65340935583031</v>
       </c>
       <c r="H10">
-        <v>862.6818702636392</v>
+        <v>822.198393250507</v>
       </c>
       <c r="I10">
-        <v>-1267.831254496053</v>
+        <v>-1279.264003800545</v>
       </c>
       <c r="J10">
-        <v>1602.125687944017</v>
+        <v>1605.656589770902</v>
       </c>
       <c r="K10">
-        <v>2045.703109522531</v>
+        <v>2095.973217078791</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>171.9345825699731</v>
+        <v>171.7468394572423</v>
       </c>
       <c r="G11">
-        <v>-65.51513760305484</v>
+        <v>-64.31266904940384</v>
       </c>
       <c r="H11">
-        <v>1062.169832166583</v>
+        <v>1097.078498540143</v>
       </c>
       <c r="I11">
-        <v>-1252.534846293708</v>
+        <v>-1219.314158737006</v>
       </c>
       <c r="J11">
-        <v>1533.969609649285</v>
+        <v>1595.747328545953</v>
       </c>
       <c r="K11">
-        <v>2101.678636520371</v>
+        <v>2262.72736829029</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>134.7332584318025</v>
+        <v>138.230288216216</v>
       </c>
       <c r="G12">
-        <v>-49.47221642235246</v>
+        <v>-50.90466312513924</v>
       </c>
       <c r="H12">
-        <v>1187.09493426993</v>
+        <v>1143.079112485789</v>
       </c>
       <c r="I12">
-        <v>-1210.695578384013</v>
+        <v>-1178.909665036053</v>
       </c>
       <c r="J12">
-        <v>1558.961857003441</v>
+        <v>1583.317818536339</v>
       </c>
       <c r="K12">
-        <v>2313.047055646691</v>
+        <v>2334.084190966282</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>116.0902095973296</v>
+        <v>116.0111463059785</v>
       </c>
       <c r="G13">
-        <v>-34.66807193992072</v>
+        <v>-34.98204818137548</v>
       </c>
       <c r="H13">
-        <v>1259.97935253233</v>
+        <v>1274.8310534763</v>
       </c>
       <c r="I13">
-        <v>-1142.15417210675</v>
+        <v>-1155.778418045757</v>
       </c>
       <c r="J13">
-        <v>1473.528970962429</v>
+        <v>1445.589443462397</v>
       </c>
       <c r="K13">
-        <v>2482.545802888209</v>
+        <v>2464.773344913325</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>110.973420939149</v>
+        <v>105.047608769479</v>
       </c>
       <c r="G14">
-        <v>-17.32500990421537</v>
+        <v>-17.70912597962347</v>
       </c>
       <c r="H14">
-        <v>1344.982226320615</v>
+        <v>1295.341179826218</v>
       </c>
       <c r="I14">
-        <v>-1083.68755144703</v>
+        <v>-1122.067766660846</v>
       </c>
       <c r="J14">
-        <v>1390.267946742495</v>
+        <v>1416.529407727804</v>
       </c>
       <c r="K14">
-        <v>2672.08455219968</v>
+        <v>2642.53838725323</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>97.55789882225046</v>
+        <v>97.99165940768754</v>
       </c>
       <c r="G15">
-        <v>-0.8922736841962206</v>
+        <v>-0.8805291565986536</v>
       </c>
       <c r="H15">
-        <v>1384.25430144625</v>
+        <v>1410.968828834731</v>
       </c>
       <c r="I15">
-        <v>-1081.948493946752</v>
+        <v>-1049.416375134963</v>
       </c>
       <c r="J15">
-        <v>1429.915374555986</v>
+        <v>1401.251499094859</v>
       </c>
       <c r="K15">
-        <v>2789.28329231922</v>
+        <v>2705.363885296402</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>97.16084609273236</v>
+        <v>93.9993594796249</v>
       </c>
       <c r="G16">
-        <v>15.8291891189225</v>
+        <v>15.34001022329181</v>
       </c>
       <c r="H16">
-        <v>1447.021607644274</v>
+        <v>1449.595690456169</v>
       </c>
       <c r="I16">
-        <v>-991.9030206198075</v>
+        <v>-999.8736105554107</v>
       </c>
       <c r="J16">
-        <v>1312.159616968198</v>
+        <v>1340.131419509984</v>
       </c>
       <c r="K16">
-        <v>2959.661310280084</v>
+        <v>2782.0246969839</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>84.22395367936741</v>
+        <v>82.89536341974255</v>
       </c>
       <c r="G17">
-        <v>32.46884575554176</v>
+        <v>30.54439108710288</v>
       </c>
       <c r="H17">
-        <v>1476.055658123205</v>
+        <v>1509.659441511652</v>
       </c>
       <c r="I17">
-        <v>-988.3290472845731</v>
+        <v>-938.1696688605921</v>
       </c>
       <c r="J17">
-        <v>1238.040058360414</v>
+        <v>1326.880439445466</v>
       </c>
       <c r="K17">
-        <v>2913.440077653521</v>
+        <v>2868.824612792303</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>81.75785603748339</v>
+        <v>84.6945937261867</v>
       </c>
       <c r="G18">
-        <v>46.99880640938209</v>
+        <v>48.97726207995147</v>
       </c>
       <c r="H18">
-        <v>1499.445515872338</v>
+        <v>1459.34950578271</v>
       </c>
       <c r="I18">
-        <v>-895.0475968418764</v>
+        <v>-925.2196314032373</v>
       </c>
       <c r="J18">
-        <v>1193.525432721893</v>
+        <v>1279.727660436505</v>
       </c>
       <c r="K18">
-        <v>3189.912262823865</v>
+        <v>3053.407243878432</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>74.17872670834534</v>
+        <v>80.95666118335379</v>
       </c>
       <c r="G19">
-        <v>66.34944897624493</v>
+        <v>64.60737657056997</v>
       </c>
       <c r="H19">
-        <v>1583.868764885649</v>
+        <v>1574.469329152155</v>
       </c>
       <c r="I19">
-        <v>-899.4181759434754</v>
+        <v>-883.3121884410974</v>
       </c>
       <c r="J19">
-        <v>1197.40789494534</v>
+        <v>1208.564751760986</v>
       </c>
       <c r="K19">
-        <v>3256.450114084451</v>
+        <v>2963.432217454395</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>71.13357341337934</v>
+        <v>76.02858532671166</v>
       </c>
       <c r="G20">
-        <v>84.953584672552</v>
+        <v>84.38157945187196</v>
       </c>
       <c r="H20">
-        <v>1583.66878348546</v>
+        <v>1504.282418351538</v>
       </c>
       <c r="I20">
-        <v>-804.8496894445398</v>
+        <v>-809.2271699936115</v>
       </c>
       <c r="J20">
-        <v>1114.138013877618</v>
+        <v>1180.126217424812</v>
       </c>
       <c r="K20">
-        <v>3169.109244618442</v>
+        <v>3218.891817841349</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>70.91031719867286</v>
+        <v>69.23155824433911</v>
       </c>
       <c r="G21">
-        <v>94.92804027433426</v>
+        <v>97.68698774529975</v>
       </c>
       <c r="H21">
-        <v>1651.326944628587</v>
+        <v>1667.556626352211</v>
       </c>
       <c r="I21">
-        <v>-786.0081732932216</v>
+        <v>-757.2160857672333</v>
       </c>
       <c r="J21">
-        <v>1082.022213260828</v>
+        <v>1105.033301272355</v>
       </c>
       <c r="K21">
-        <v>3184.537235067909</v>
+        <v>3163.197317583706</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>71.22991474677843</v>
+        <v>69.49624658489176</v>
       </c>
       <c r="G22">
-        <v>117.0807455446729</v>
+        <v>111.4792163370081</v>
       </c>
       <c r="H22">
-        <v>1668.912897168254</v>
+        <v>1630.717414308893</v>
       </c>
       <c r="I22">
-        <v>-765.3910627728798</v>
+        <v>-732.01837337571</v>
       </c>
       <c r="J22">
-        <v>1004.132313616017</v>
+        <v>980.7561070815764</v>
       </c>
       <c r="K22">
-        <v>3159.816881530745</v>
+        <v>3124.984587512826</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.53444765806348</v>
+        <v>68.39260983218715</v>
       </c>
       <c r="G23">
-        <v>134.4155814273416</v>
+        <v>130.0298606368663</v>
       </c>
       <c r="H23">
-        <v>1629.307164902378</v>
+        <v>1573.071696632503</v>
       </c>
       <c r="I23">
-        <v>-689.5042604772328</v>
+        <v>-716.0684964101945</v>
       </c>
       <c r="J23">
-        <v>1015.371127990797</v>
+        <v>988.4448691337699</v>
       </c>
       <c r="K23">
-        <v>3277.00141177812</v>
+        <v>3287.290178986455</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.64972815857993</v>
+        <v>62.87203905099263</v>
       </c>
       <c r="G24">
-        <v>143.2541762756796</v>
+        <v>153.702077186224</v>
       </c>
       <c r="H24">
-        <v>1655.790116335964</v>
+        <v>1661.316247673426</v>
       </c>
       <c r="I24">
-        <v>-629.7407322067903</v>
+        <v>-625.0359664642841</v>
       </c>
       <c r="J24">
-        <v>885.6092091802968</v>
+        <v>913.1844371139175</v>
       </c>
       <c r="K24">
-        <v>3126.754383342441</v>
+        <v>3267.642963191624</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>59.73784310495033</v>
+        <v>59.17506573058686</v>
       </c>
       <c r="G25">
-        <v>157.8109039420652</v>
+        <v>158.9491183072942</v>
       </c>
       <c r="H25">
-        <v>1746.515988843335</v>
+        <v>1643.835542935456</v>
       </c>
       <c r="I25">
-        <v>-573.6461055967538</v>
+        <v>-622.2972156077087</v>
       </c>
       <c r="J25">
-        <v>849.4484272829278</v>
+        <v>898.1738657401239</v>
       </c>
       <c r="K25">
-        <v>3156.745082726232</v>
+        <v>3079.644547628254</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.78702244350031</v>
+        <v>59.03439484236446</v>
       </c>
       <c r="G26">
-        <v>180.3266966803182</v>
+        <v>173.9319708447814</v>
       </c>
       <c r="H26">
-        <v>1635.424311256975</v>
+        <v>1724.627061639759</v>
       </c>
       <c r="I26">
-        <v>-543.6219005363096</v>
+        <v>-561.7933427406474</v>
       </c>
       <c r="J26">
-        <v>824.8738103340836</v>
+        <v>794.7394010639953</v>
       </c>
       <c r="K26">
-        <v>2977.865727981504</v>
+        <v>3077.409323903652</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.90222347618548</v>
+        <v>55.99354900191727</v>
       </c>
       <c r="G27">
-        <v>198.2168282988479</v>
+        <v>193.8776745665521</v>
       </c>
       <c r="H27">
-        <v>1722.445304188998</v>
+        <v>1783.160822280431</v>
       </c>
       <c r="I27">
-        <v>-473.0112429171136</v>
+        <v>-477.869730632025</v>
       </c>
       <c r="J27">
-        <v>811.4580284403464</v>
+        <v>789.317863103561</v>
       </c>
       <c r="K27">
-        <v>3105.449145426417</v>
+        <v>3050.855912323437</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.76241137000302</v>
+        <v>58.09610973703768</v>
       </c>
       <c r="G28">
-        <v>218.4495977331919</v>
+        <v>207.1558818237714</v>
       </c>
       <c r="H28">
-        <v>1759.441353448475</v>
+        <v>1648.143104279643</v>
       </c>
       <c r="I28">
-        <v>-436.1117168847357</v>
+        <v>-452.5368591204468</v>
       </c>
       <c r="J28">
-        <v>755.8080242262896</v>
+        <v>742.8883344976906</v>
       </c>
       <c r="K28">
-        <v>3008.021008247278</v>
+        <v>2979.408161293391</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.01254506183903</v>
+        <v>54.42854593975218</v>
       </c>
       <c r="G29">
-        <v>235.961187451103</v>
+        <v>223.0300608095187</v>
       </c>
       <c r="H29">
-        <v>1740.143769628166</v>
+        <v>1699.224075034222</v>
       </c>
       <c r="I29">
-        <v>-387.422459525519</v>
+        <v>-381.577905350887</v>
       </c>
       <c r="J29">
-        <v>664.8067724647232</v>
+        <v>656.2249747782677</v>
       </c>
       <c r="K29">
-        <v>2924.133067286463</v>
+        <v>2866.793152405352</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.45591268644248</v>
+        <v>51.70082755684775</v>
       </c>
       <c r="G30">
-        <v>257.5483373475398</v>
+        <v>247.1787850270631</v>
       </c>
       <c r="H30">
-        <v>1739.961315019863</v>
+        <v>1771.772058608717</v>
       </c>
       <c r="I30">
-        <v>-339.3760651819902</v>
+        <v>-313.0762108944568</v>
       </c>
       <c r="J30">
-        <v>644.9566085728775</v>
+        <v>655.282446736819</v>
       </c>
       <c r="K30">
-        <v>2814.140753241638</v>
+        <v>2643.385611819437</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.4945425241437</v>
+        <v>51.57150887247715</v>
       </c>
       <c r="G31">
-        <v>251.6233008057183</v>
+        <v>275.1013494823586</v>
       </c>
       <c r="H31">
-        <v>1682.684597833888</v>
+        <v>1738.50399091507</v>
       </c>
       <c r="I31">
-        <v>-266.4171378863453</v>
+        <v>-268.7987849756273</v>
       </c>
       <c r="J31">
-        <v>609.2857212502049</v>
+        <v>586.558839368972</v>
       </c>
       <c r="K31">
-        <v>2604.795488047712</v>
+        <v>2663.422232559919</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.62091479493935</v>
+        <v>49.00059681189726</v>
       </c>
       <c r="G32">
-        <v>287.105273193358</v>
+        <v>278.273215159964</v>
       </c>
       <c r="H32">
-        <v>1754.586014338262</v>
+        <v>1804.794113264188</v>
       </c>
       <c r="I32">
-        <v>-207.7037348152376</v>
+        <v>-217.8111169331193</v>
       </c>
       <c r="J32">
-        <v>545.5452970628224</v>
+        <v>546.9377949198703</v>
       </c>
       <c r="K32">
-        <v>2470.015276716775</v>
+        <v>2441.361991636898</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.32874655942067</v>
+        <v>47.91275400233152</v>
       </c>
       <c r="G33">
-        <v>308.213070867439</v>
+        <v>291.7402672431979</v>
       </c>
       <c r="H33">
-        <v>1716.519605814436</v>
+        <v>1767.205317096426</v>
       </c>
       <c r="I33">
-        <v>-139.4213026540872</v>
+        <v>-147.992561569166</v>
       </c>
       <c r="J33">
-        <v>504.8700760845779</v>
+        <v>515.8051250338692</v>
       </c>
       <c r="K33">
-        <v>2338.898060758054</v>
+        <v>2399.966504391276</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.6973720243188</v>
+        <v>47.68032557400838</v>
       </c>
       <c r="G34">
-        <v>298.3195285449353</v>
+        <v>298.0449535473389</v>
       </c>
       <c r="H34">
-        <v>1803.007802605274</v>
+        <v>1830.350412025433</v>
       </c>
       <c r="I34">
-        <v>-82.1374457059665</v>
+        <v>-82.41148157599871</v>
       </c>
       <c r="J34">
-        <v>428.2758017530511</v>
+        <v>446.1952711793396</v>
       </c>
       <c r="K34">
-        <v>2193.431799675707</v>
+        <v>2251.647187396419</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>50.03571739204381</v>
+        <v>49.16076159183943</v>
       </c>
       <c r="G35">
-        <v>322.544124800945</v>
+        <v>339.0121385549245</v>
       </c>
       <c r="H35">
-        <v>1880.116267067184</v>
+        <v>1786.424087093263</v>
       </c>
       <c r="I35">
-        <v>-19.28701954294924</v>
+        <v>-18.00902095835988</v>
       </c>
       <c r="J35">
-        <v>392.271821311452</v>
+        <v>391.1946659238026</v>
       </c>
       <c r="K35">
-        <v>2045.329294591878</v>
+        <v>2032.329074669221</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.90081321344523</v>
+        <v>48.54798252919296</v>
       </c>
       <c r="G36">
-        <v>342.7938691721139</v>
+        <v>346.8174042653915</v>
       </c>
       <c r="H36">
-        <v>1795.067737378349</v>
+        <v>1869.121343524542</v>
       </c>
       <c r="I36">
-        <v>48.4505298184879</v>
+        <v>46.14735576562197</v>
       </c>
       <c r="J36">
-        <v>335.6431244259905</v>
+        <v>335.9038590322942</v>
       </c>
       <c r="K36">
-        <v>1901.275751151258</v>
+        <v>1830.343889479338</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.20330173234787</v>
+        <v>45.09641901930987</v>
       </c>
       <c r="G37">
-        <v>360.1051865615863</v>
+        <v>344.7983856914844</v>
       </c>
       <c r="H37">
-        <v>1843.907181020197</v>
+        <v>1850.744053859885</v>
       </c>
       <c r="I37">
-        <v>110.2778217246657</v>
+        <v>114.5841572117358</v>
       </c>
       <c r="J37">
-        <v>307.2537886602937</v>
+        <v>294.8565343034376</v>
       </c>
       <c r="K37">
-        <v>1602.121555954793</v>
+        <v>1572.385330897204</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>43.69836684751762</v>
+        <v>45.76591539895265</v>
       </c>
       <c r="G38">
-        <v>364.7916888470652</v>
+        <v>368.2943558646103</v>
       </c>
       <c r="H38">
-        <v>1855.523748504744</v>
+        <v>1810.689258059986</v>
       </c>
       <c r="I38">
-        <v>189.2833563343696</v>
+        <v>191.898609629426</v>
       </c>
       <c r="J38">
-        <v>258.7922720733787</v>
+        <v>236.4996768742448</v>
       </c>
       <c r="K38">
-        <v>1338.329506324263</v>
+        <v>1361.991966380173</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.1961910535024</v>
+        <v>43.81606555611395</v>
       </c>
       <c r="G39">
-        <v>411.3116686443806</v>
+        <v>397.9644761199014</v>
       </c>
       <c r="H39">
-        <v>1916.665996030821</v>
+        <v>1893.731976246555</v>
       </c>
       <c r="I39">
-        <v>255.9590156707646</v>
+        <v>255.257827710643</v>
       </c>
       <c r="J39">
-        <v>191.443028008237</v>
+        <v>195.0859979775207</v>
       </c>
       <c r="K39">
-        <v>1094.501152035596</v>
+        <v>1199.268911257048</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.97706796079428</v>
+        <v>43.32290648180723</v>
       </c>
       <c r="G40">
-        <v>396.2056391144279</v>
+        <v>428.9753320735742</v>
       </c>
       <c r="H40">
-        <v>1798.433941190548</v>
+        <v>1936.688602449977</v>
       </c>
       <c r="I40">
-        <v>322.9680773716748</v>
+        <v>321.5580101904424</v>
       </c>
       <c r="J40">
-        <v>143.8780303156306</v>
+        <v>149.1296539782053</v>
       </c>
       <c r="K40">
-        <v>887.1627709302821</v>
+        <v>918.7816297831621</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>45.16429264085798</v>
+        <v>41.79828884380774</v>
       </c>
       <c r="G41">
-        <v>433.6117852391436</v>
+        <v>408.0127033201265</v>
       </c>
       <c r="H41">
-        <v>1894.237378099018</v>
+        <v>1843.865172382548</v>
       </c>
       <c r="I41">
-        <v>386.0588277734941</v>
+        <v>417.8500382754561</v>
       </c>
       <c r="J41">
-        <v>106.8953264207293</v>
+        <v>98.61485661510865</v>
       </c>
       <c r="K41">
-        <v>652.8262600414415</v>
+        <v>634.6108795573729</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.50404421175684</v>
+        <v>44.65817363961152</v>
       </c>
       <c r="G42">
-        <v>426.404140504043</v>
+        <v>447.8729121262642</v>
       </c>
       <c r="H42">
-        <v>1852.682182949308</v>
+        <v>1857.043036249621</v>
       </c>
       <c r="I42">
-        <v>493.3864305683514</v>
+        <v>498.9049853852757</v>
       </c>
       <c r="J42">
-        <v>54.84694100797618</v>
+        <v>52.91883103123864</v>
       </c>
       <c r="K42">
-        <v>345.3371533282235</v>
+        <v>344.0464066757748</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.11625280809701</v>
+        <v>40.29947699104908</v>
       </c>
       <c r="G43">
-        <v>449.7743977166209</v>
+        <v>468.7863784650923</v>
       </c>
       <c r="H43">
-        <v>1826.138197499484</v>
+        <v>1837.06331258093</v>
       </c>
       <c r="I43">
-        <v>555.8841896371279</v>
+        <v>574.8062452608674</v>
       </c>
       <c r="J43">
-        <v>5.497091107253336</v>
+        <v>5.043875971667575</v>
       </c>
       <c r="K43">
-        <v>33.84477136336608</v>
+        <v>32.65062209117342</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.7646280807458</v>
+        <v>40.14174321734423</v>
       </c>
       <c r="G44">
-        <v>480.7470493570459</v>
+        <v>475.524199874681</v>
       </c>
       <c r="H44">
-        <v>1948.808564752399</v>
+        <v>1943.136194514603</v>
       </c>
       <c r="I44">
-        <v>652.0112499573486</v>
+        <v>650.3708549741295</v>
       </c>
       <c r="J44">
-        <v>-42.44335168457692</v>
+        <v>-42.87767974991744</v>
       </c>
       <c r="K44">
-        <v>-271.2400999486443</v>
+        <v>-295.6111391948979</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.44810550360267</v>
+        <v>39.47553160004286</v>
       </c>
       <c r="G45">
-        <v>508.9716024785682</v>
+        <v>476.3355478125131</v>
       </c>
       <c r="H45">
-        <v>1937.853894132088</v>
+        <v>1989.133373985997</v>
       </c>
       <c r="I45">
-        <v>740.1933487027185</v>
+        <v>715.5439941347875</v>
       </c>
       <c r="J45">
-        <v>-92.70991877979863</v>
+        <v>-92.83422408384313</v>
       </c>
       <c r="K45">
-        <v>-588.4384641253057</v>
+        <v>-602.3925131462789</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>42.24026325787987</v>
+        <v>40.03966505294198</v>
       </c>
       <c r="G46">
-        <v>531.3995409001</v>
+        <v>496.4740868691176</v>
       </c>
       <c r="H46">
-        <v>1922.6267081054</v>
+        <v>1861.86474721055</v>
       </c>
       <c r="I46">
-        <v>815.2190812651265</v>
+        <v>837.4772562932183</v>
       </c>
       <c r="J46">
-        <v>-141.1719329236527</v>
+        <v>-137.1486189422587</v>
       </c>
       <c r="K46">
-        <v>-1008.135162795714</v>
+        <v>-947.0727413442552</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.48410249695954</v>
+        <v>40.23241686168621</v>
       </c>
       <c r="G47">
-        <v>538.7184819135289</v>
+        <v>547.1780430937189</v>
       </c>
       <c r="H47">
-        <v>2027.784837376187</v>
+        <v>2024.67225355123</v>
       </c>
       <c r="I47">
-        <v>930.773840856446</v>
+        <v>932.0237802770852</v>
       </c>
       <c r="J47">
-        <v>-184.9440148474827</v>
+        <v>-183.3708131436103</v>
       </c>
       <c r="K47">
-        <v>-1330.091380290802</v>
+        <v>-1355.545442639503</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.02333112530446</v>
+        <v>40.08577153241994</v>
       </c>
       <c r="G48">
-        <v>521.8613628661749</v>
+        <v>520.9418168357649</v>
       </c>
       <c r="H48">
-        <v>1904.216698643367</v>
+        <v>2022.514358939614</v>
       </c>
       <c r="I48">
-        <v>970.6943673252399</v>
+        <v>987.2860524577322</v>
       </c>
       <c r="J48">
-        <v>-245.3912485612094</v>
+        <v>-243.1703285238839</v>
       </c>
       <c r="K48">
-        <v>-1695.924168477686</v>
+        <v>-1753.581559765218</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.28282138168178</v>
+        <v>38.83545015446956</v>
       </c>
       <c r="G49">
-        <v>562.0469864241238</v>
+        <v>549.4033231402202</v>
       </c>
       <c r="H49">
-        <v>2031.7965790339</v>
+        <v>2029.282074012425</v>
       </c>
       <c r="I49">
-        <v>1096.82997425373</v>
+        <v>1089.698450921843</v>
       </c>
       <c r="J49">
-        <v>-278.3674503414981</v>
+        <v>-279.3437408244367</v>
       </c>
       <c r="K49">
-        <v>-2147.137738003202</v>
+        <v>-2196.39134443188</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.85817164571549</v>
+        <v>37.71986024036723</v>
       </c>
       <c r="G50">
-        <v>604.6269576610561</v>
+        <v>549.1271532539182</v>
       </c>
       <c r="H50">
-        <v>1861.562355726985</v>
+        <v>1926.449922331082</v>
       </c>
       <c r="I50">
-        <v>1178.106282181479</v>
+        <v>1196.996420975433</v>
       </c>
       <c r="J50">
-        <v>-328.8023187678593</v>
+        <v>-339.7082120875694</v>
       </c>
       <c r="K50">
-        <v>-2533.366735628965</v>
+        <v>-2527.423721445716</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.77583839131089</v>
+        <v>39.67202997077602</v>
       </c>
       <c r="G51">
-        <v>611.7335635772777</v>
+        <v>569.473199680477</v>
       </c>
       <c r="H51">
-        <v>1904.390457062648</v>
+        <v>1865.638134588418</v>
       </c>
       <c r="I51">
-        <v>1272.574662866528</v>
+        <v>1243.217305293507</v>
       </c>
       <c r="J51">
-        <v>-384.0317872904378</v>
+        <v>-399.403891258283</v>
       </c>
       <c r="K51">
-        <v>-2878.068453091117</v>
+        <v>-3065.236701471139</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.06134002385311</v>
+        <v>36.902020643387</v>
       </c>
       <c r="G52">
-        <v>610.658233561108</v>
+        <v>637.9471232847658</v>
       </c>
       <c r="H52">
-        <v>1988.234891937048</v>
+        <v>2028.227694208406</v>
       </c>
       <c r="I52">
-        <v>1346.71860863418</v>
+        <v>1418.956765498296</v>
       </c>
       <c r="J52">
-        <v>-428.6008963445611</v>
+        <v>-453.1515939910012</v>
       </c>
       <c r="K52">
-        <v>-3420.053726399056</v>
+        <v>-3314.886904194114</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.81891503529855</v>
+        <v>38.37240954530111</v>
       </c>
       <c r="G53">
-        <v>631.0070877572218</v>
+        <v>619.0271506971867</v>
       </c>
       <c r="H53">
-        <v>1890.401764234908</v>
+        <v>1921.293840994338</v>
       </c>
       <c r="I53">
-        <v>1459.33802005418</v>
+        <v>1449.733407894171</v>
       </c>
       <c r="J53">
-        <v>-474.2852814794918</v>
+        <v>-471.4989572238359</v>
       </c>
       <c r="K53">
-        <v>-3802.831647496741</v>
+        <v>-3842.143781745033</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.21104564765184</v>
+        <v>37.61611302431432</v>
       </c>
       <c r="G54">
-        <v>629.9555746970019</v>
+        <v>651.3304517428865</v>
       </c>
       <c r="H54">
-        <v>2038.597632636807</v>
+        <v>2041.697855563312</v>
       </c>
       <c r="I54">
-        <v>1577.206511368193</v>
+        <v>1545.987494571806</v>
       </c>
       <c r="J54">
-        <v>-518.5634517577573</v>
+        <v>-518.1804554029256</v>
       </c>
       <c r="K54">
-        <v>-4323.580330703048</v>
+        <v>-4257.783275381815</v>
       </c>
     </row>
   </sheetData>
